--- a/biology/Botanique/Ecclinusa/Ecclinusa.xlsx
+++ b/biology/Botanique/Ecclinusa/Ecclinusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecclinusa est un genre de plantes à fleurs de la famille des Sapotaceae. Ce sont des arbres originaires d'Amazonie.
 Ce genre compterait une dizaine d'espèces. 
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ecclimusa  Mart. ex A.DC. in A.P.de Candolle, Prodr. 8: 156 (1844), orth. var.
 Passaveria Mart. &amp; Eichler ex Miq. in C.F.P.von Martius &amp; auct. suc. (eds.), Fl. Bras. 7: 85 (1863).</t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ecclinusa atabapoensis (Aubrév.) T.D.Penn., Fl. Neotrop. Monogr. 52: 627 (1990).
 Ecclinusa bullata T.D.Penn., Fl. Neotrop. Monogr. 52: 634 (1990).
